--- a/document/ProjectUsing/SqlDataTableNotes/後臺管理表/後臺資料表設計.xlsx
+++ b/document/ProjectUsing/SqlDataTableNotes/後臺管理表/後臺資料表設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\StudyNotes\SqlStudyNotes\SqlDataTableNotes\後臺管理表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\ProjectUsing\SqlDataTableNotes\後臺管理表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>對應的腳色名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_roleId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -215,15 +211,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>會話ID(登入了沒有)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -283,7 +271,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36 + | + 64個字元</t>
+    <t>varchar(24)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 + | + 64個字元=&gt;是salt + 相隔字元"|" + (salt+密碼)雜湊之後</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述腳色的用途</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一串數字, 用來表示擁有的權限, 採用的方式是根據C# enum的設計</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會話ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>對應的腳色ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -857,13 +865,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -882,7 +890,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -892,23 +900,23 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -918,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -939,31 +947,31 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1001,10 +1009,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1013,23 +1021,23 @@
         <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -1039,28 +1047,32 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
@@ -1097,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -1138,7 +1150,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1171,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>17</v>
@@ -1183,19 +1195,19 @@
         <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -1203,13 +1215,13 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>

--- a/document/ProjectUsing/SqlDataTableNotes/後臺管理表/後臺資料表設計.xlsx
+++ b/document/ProjectUsing/SqlDataTableNotes/後臺管理表/後臺資料表設計.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\ProjectUsing\SqlDataTableNotes\後臺管理表\"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,67 +103,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">f_description </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>roles資料表(t_roles)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f_hash </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_roleId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_description </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission資料表(t_permission)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>roles資料表(t_roles)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f_hash </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_roleId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_roleId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_rolePermissionId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_permissionId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -179,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>f_account</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -223,10 +175,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f_permissionId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>f_roleId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -239,14 +187,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>roles_permission資料表(t_rolePermission)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,10 +197,6 @@
   <si>
     <t>角色名字</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f_rolePermission</t>
@@ -799,10 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A18" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -865,13 +802,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -887,10 +824,10 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -900,25 +837,24 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -926,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -936,47 +872,44 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1009,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1021,63 +954,60 @@
         <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1085,60 +1015,28 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -1149,9 +1047,7 @@
       <c r="F28" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1159,70 +1055,34 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
     </row>
@@ -1241,6 +1101,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
